--- a/docs/floodchannel.xlsx
+++ b/docs/floodchannel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="8595" windowHeight="8250"/>
+    <workbookView xWindow="360" yWindow="96" windowWidth="8592" windowHeight="8256" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -222,6 +230,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N34"/>
+  <dimension ref="A4:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -542,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -553,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -580,21 +591,20 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f>G6</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
@@ -604,8 +614,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <f>C7</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>4</v>
@@ -615,21 +624,20 @@
         <v>5</v>
       </c>
       <c r="K7" s="7">
-        <f>G7</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>4</v>
@@ -640,7 +648,7 @@
       </c>
       <c r="G8" s="7">
         <f>C8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>4</v>
@@ -651,21 +659,21 @@
       </c>
       <c r="K8" s="7">
         <f>G8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="9">
         <f>C6-C7</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>4</v>
@@ -675,8 +683,8 @@
         <v>6</v>
       </c>
       <c r="G9" s="9">
-        <f>C9</f>
-        <v>16</v>
+        <f>G6-G7</f>
+        <v>11</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>4</v>
@@ -686,21 +694,21 @@
         <v>6</v>
       </c>
       <c r="K9" s="9">
-        <f>G9</f>
-        <v>16</v>
+        <f>K6-K7</f>
+        <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>4</v>
@@ -712,7 +720,7 @@
       </c>
       <c r="G10" s="7">
         <f>C10</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>4</v>
@@ -724,19 +732,19 @@
       </c>
       <c r="K10" s="7">
         <f>G10</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -745,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -754,22 +762,21 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <f>G16</f>
-        <v>0.62000000000000011</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.1</v>
-      </c>
+      <c r="M11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -787,21 +794,20 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <f>G17</f>
-        <v>2.62</v>
+        <v>0.2</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10">
         <f>C12*C7+C11*C9</f>
-        <v>21.2</v>
+        <v>20.950000000000003</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>12</v>
@@ -810,7 +816,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10">
         <f>G11*G9+G12*G7</f>
-        <v>20.399999999999999</v>
+        <v>12.100000000000001</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
@@ -819,21 +825,21 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10">
         <f>K11*K9+K12*K7</f>
-        <v>20.400000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <f>C11*(1-C7/C6)+(C12-C8)*C7/C6*$A$12</f>
-        <v>0.56999999999999995</v>
+        <f>C11*(1-$C$7/$C$6)+(C12-$C$8)*$C$7/$C$6</f>
+        <v>9.7500000000000087E-2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -842,7 +848,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <f>G11*(1-G7/G6)+(G12-G8)*G7/G6</f>
-        <v>0.62000000000000011</v>
+        <v>0.15500000000000005</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>4</v>
@@ -851,75 +857,75 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <f>K11*(1-K7/K6)+(K12-K8)*K7/K6</f>
-        <v>0.62000000000000011</v>
+        <v>-0.7433333333333334</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
         <f>C15</f>
-        <v>0.56999999999999995</v>
+        <v>9.7500000000000087E-2</v>
       </c>
       <c r="D16">
         <f>C11+$A$12*(C12-C8)*C7/C9</f>
-        <v>0.71249999999999991</v>
+        <v>0.05</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
       </c>
       <c r="G16">
         <f>G15</f>
-        <v>0.62000000000000011</v>
+        <v>0.15500000000000005</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
       </c>
       <c r="K16">
-        <f>K15</f>
-        <v>0.62000000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f>MAX(0,K15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17">
         <f>C8+C15</f>
-        <v>2.57</v>
+        <v>1.0975000000000001</v>
       </c>
       <c r="D17">
         <f>C12-$A$12*(C12-C8)</f>
-        <v>2.4500000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
       </c>
       <c r="G17">
         <f>G8+G15</f>
-        <v>2.62</v>
+        <v>1.155</v>
       </c>
       <c r="J17" t="s">
         <v>2</v>
       </c>
       <c r="K17">
-        <f>K8+K15</f>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f>K11*K9/K7+K12</f>
+        <v>0.20357142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10">
         <f>C16*C9+C17*C7</f>
-        <v>19.399999999999999</v>
+        <v>20.950000000000003</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
@@ -928,7 +934,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="10">
         <f>G16*G9+G17*G7</f>
-        <v>20.400000000000002</v>
+        <v>12.1</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>12</v>
@@ -937,432 +943,592 @@
       <c r="J18" s="12"/>
       <c r="K18" s="10">
         <f>K16*K9+K17*K7</f>
-        <v>20.400000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="14">
+        <f>K13-K18</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2">
+        <f>C16*(1-$C$7/$C$6)+(C17-$C$8)*$C$7/$C$6</f>
+        <v>9.7500000000000142E-2</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="14">
+        <f>K19/K7</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="15">
+        <f>K17+K20</f>
+        <v>0.20357142857142857</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13">
+        <f>K21*K7</f>
+        <v>2.85</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10">
+        <f>SQRT(9.8*0.05)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D29">
         <f>D16*C9+D17*C7</f>
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <f>2+EXP(-1.5*2)</f>
-        <v>2.0497870683678641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+        <v>20.950000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F31" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C33" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="5">
-        <f>C23</f>
+      <c r="G33" s="5">
+        <f>C33</f>
         <v>20</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="H33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="5">
-        <f>G23</f>
+      <c r="K33" s="5">
+        <f>G33</f>
         <v>20</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="L33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C34" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="D34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="7">
-        <f>C24</f>
+      <c r="G34" s="7">
+        <f>C34</f>
         <v>19</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
+      <c r="H34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="7">
-        <f>G24</f>
+      <c r="K34" s="7">
+        <f>G34</f>
         <v>19</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="L34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="7">
-        <f>C25</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
+      <c r="G35" s="7">
+        <f>C35</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="7">
-        <f>G25</f>
-        <v>1</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="K35" s="7">
+        <f>G35</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9">
-        <f>C23-C24</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
+      <c r="C36" s="9">
+        <f>C33-C34</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="9">
-        <f>C26</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
+      <c r="G36" s="9">
+        <f>C36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="9">
-        <f>G26</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="K36" s="9">
+        <f>G36</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>0.7</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>0.1</v>
       </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>0.3</v>
       </c>
-      <c r="L27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <f>K27*N27</f>
-        <v>0.03</v>
-      </c>
-      <c r="N27">
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="e">
+        <f>K37*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1.8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10">
+        <f>C38*C34+C37*C36</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
+        <f>G37*G36+G38*G34</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="H39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10">
+        <f>K37*K36+K38*K34</f>
+        <v>19.3</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <f>C37*(1-C34/C33)+(C38-C35)*C34/C33</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <f>G37*(1-G34/G33)+(G38-G35)*G34/G33</f>
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <f>K37*(1-K34/K33)+(K38-K35)*K34/K33</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f>C41</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>G41</f>
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f>K41</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="e">
+        <f>K37-M37</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>1.8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C43">
+        <f>C35+C41</f>
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="D43">
+        <f>C38+C37*C36/C34</f>
+        <v>1.8368421052631578</v>
+      </c>
+      <c r="F43" t="s">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="G43">
+        <f>G35+G41</f>
+        <v>5.5000000000000049E-2</v>
+      </c>
+      <c r="H43">
+        <f>G38+G37*G36/G34</f>
+        <v>5.263157894736842E-3</v>
+      </c>
+      <c r="J43" t="s">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="K43">
+        <f>K35+K41</f>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="L43">
+        <f>K38+K37*K36/K34</f>
+        <v>1.0157894736842106</v>
+      </c>
+      <c r="M43" t="e">
+        <f>K38+M37*K36/K34</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10">
-        <f>C28*C24+C27*C26</f>
-        <v>34.900000000000006</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
-        <f>G27*G26+G28*G24</f>
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
-        <f>K27*K26+K28*K24</f>
+      <c r="B44" s="12"/>
+      <c r="C44" s="10">
+        <f>C42*C36+C43*C34</f>
+        <v>34.9</v>
+      </c>
+      <c r="D44" s="10">
+        <f>D43*C34+D42*C36</f>
+        <v>34.9</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="10">
+        <f>G42*G36+G43*G34</f>
+        <v>0.10000000000000087</v>
+      </c>
+      <c r="H44" s="10">
+        <f>H43*G34+H42*G36</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="10">
+        <f>K42*K36+K43*K34</f>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="L44" s="10">
+        <f>L43*K34+L42*K36</f>
         <v>19.3</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
-        <f>C27*(1-C24/C23)+(C28-C25)*C24/C23</f>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <f>G27*(1-G24/G23)+(G28-G25)*G24/G23</f>
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <f>K27*(1-K24/K23)+(K28-K25)*K24/K23</f>
-        <v>1.5000000000000013E-2</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <f>C31</f>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>G31</f>
-        <v>-0.94499999999999995</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <f>K31</f>
-        <v>1.5000000000000013E-2</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <f>K27-M27</f>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <f>C25+C31</f>
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="D33">
-        <f>C28+C27*C26/C24</f>
-        <v>1.8368421052631578</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <f>G25+G31</f>
-        <v>5.5000000000000049E-2</v>
-      </c>
-      <c r="H33">
-        <f>G28+G27*G26/G24</f>
-        <v>5.263157894736842E-3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <f>K25+K31</f>
-        <v>1.0150000000000001</v>
-      </c>
-      <c r="L33">
-        <f>K28+K27*K26/K24</f>
-        <v>1.0157894736842106</v>
-      </c>
-      <c r="M33">
-        <f>K28+M27*K26/K24</f>
-        <v>1.0015789473684211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="10">
-        <f>C32*C26+C33*C24</f>
-        <v>34.9</v>
-      </c>
-      <c r="D34" s="10">
-        <f>D33*C24+D32*C26</f>
-        <v>34.9</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="10">
-        <f>G32*G26+G33*G24</f>
-        <v>0.10000000000000087</v>
-      </c>
-      <c r="H34" s="10">
-        <f>H33*G24+H32*G26</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="10">
-        <f>K32*K26+K33*K24</f>
-        <v>19.300000000000004</v>
-      </c>
-      <c r="L34" s="10">
-        <f>L33*K24+L32*K26</f>
-        <v>19.3</v>
-      </c>
-      <c r="M34" s="10">
-        <f>M33*K24+M32*K26</f>
-        <v>19.3</v>
+      <c r="M44" s="10" t="e">
+        <f>M43*K34+M42*K36</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1372,7 +1538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,7 +1550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/floodchannel.xlsx
+++ b/docs/floodchannel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="18">
   <si>
     <t>dx</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>levee</t>
+  </si>
+  <si>
+    <t>if &lt; 0</t>
+  </si>
+  <si>
+    <t>hmx/fc</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
@@ -614,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>4</v>
@@ -637,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>4</v>
@@ -647,8 +653,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="7">
-        <f>C8</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>4</v>
@@ -659,7 +664,7 @@
       </c>
       <c r="K8" s="7">
         <f>G8</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>4</v>
@@ -673,7 +678,7 @@
       </c>
       <c r="C9" s="9">
         <f>C6-C7</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>4</v>
@@ -684,7 +689,7 @@
       </c>
       <c r="G9" s="9">
         <f>G6-G7</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>4</v>
@@ -744,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="C11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0.05</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -776,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.1000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -785,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -807,7 +812,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10">
         <f>C12*C7+C11*C9</f>
-        <v>20.950000000000003</v>
+        <v>1.3200000000000003</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>12</v>
@@ -816,7 +821,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10">
         <f>G11*G9+G12*G7</f>
-        <v>12.100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
@@ -839,7 +844,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2">
         <f>C11*(1-$C$7/$C$6)+(C12-$C$8)*$C$7/$C$6</f>
-        <v>9.7500000000000087E-2</v>
+        <v>-0.23400000000000004</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -848,7 +853,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <f>G11*(1-G7/G6)+(G12-G8)*G7/G6</f>
-        <v>0.15500000000000005</v>
+        <v>-3.4999999999999996E-2</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>4</v>
@@ -857,7 +862,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <f>K11*(1-K7/K6)+(K12-K8)*K7/K6</f>
-        <v>-0.7433333333333334</v>
+        <v>-0.55666666666666687</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>4</v>
@@ -870,18 +875,18 @@
       </c>
       <c r="C16">
         <f>C15</f>
-        <v>9.7500000000000087E-2</v>
+        <v>-0.23400000000000004</v>
       </c>
       <c r="D16">
         <f>C11+$A$12*(C12-C8)*C7/C9</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
       </c>
       <c r="G16">
-        <f>G15</f>
-        <v>0.15500000000000005</v>
+        <f>MAX(G15,0)</f>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -897,18 +902,18 @@
       </c>
       <c r="C17">
         <f>C8+C15</f>
-        <v>1.0975000000000001</v>
+        <v>2.766</v>
       </c>
       <c r="D17">
         <f>C12-$A$12*(C12-C8)</f>
-        <v>1.1000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
       </c>
       <c r="G17">
         <f>G8+G15</f>
-        <v>1.155</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="J17" t="s">
         <v>2</v>
@@ -925,7 +930,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="10">
         <f>C16*C9+C17*C7</f>
-        <v>20.950000000000003</v>
+        <v>1.3199999999999994</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
@@ -934,7 +939,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="10">
         <f>G16*G9+G17*G7</f>
-        <v>12.1</v>
+        <v>1.53</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>12</v>
@@ -973,12 +978,11 @@
       <c r="B20" s="12"/>
       <c r="C20" s="2">
         <f>C16*(1-$C$7/$C$6)+(C17-$C$8)*$C$7/$C$6</f>
-        <v>9.7500000000000142E-2</v>
+        <v>-0.23400000000000004</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="10"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -995,9 +999,16 @@
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10">
+        <f>G11*G9/G7</f>
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="15">
@@ -1010,11 +1021,17 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <f>C12+C11/(C7/C9)</f>
+        <v>0.66000000000000014</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <f>G21*2</f>
+        <v>0.9</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1027,10 +1044,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10">
-        <f>SQRT(9.8*0.05)</f>
-        <v>0.70000000000000007</v>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15">
+        <f>C22*2</f>
+        <v>1.3200000000000003</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1045,12 +1062,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10">
+        <f>G12+G11*(G9/G7)</f>
+        <v>0.45</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -1060,8 +1080,8 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1075,8 +1095,8 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1119,10 +1139,7 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <f>D16*C9+D17*C7</f>
-        <v>20.950000000000003</v>
-      </c>
+      <c r="D29" s="12"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">

--- a/docs/floodchannel.xlsx
+++ b/docs/floodchannel.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prgc\lisem\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="96" windowWidth="8592" windowHeight="8256" tabRatio="541"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="8595" windowHeight="8250" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,16 +547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -556,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -564,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -588,7 +596,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -612,7 +620,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -636,7 +644,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -662,7 +670,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -686,7 +694,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -703,7 +711,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -720,7 +728,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -740,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -760,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -786,7 +794,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -812,7 +820,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -842,7 +850,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -866,7 +874,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -892,7 +900,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -918,7 +926,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>2</v>
@@ -940,7 +948,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9">
@@ -962,7 +970,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>21</v>
@@ -974,7 +982,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
         <v>18</v>
@@ -986,7 +994,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
@@ -998,7 +1006,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
         <v>20</v>
@@ -1010,41 +1018,41 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="11"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>0</v>
@@ -1057,20 +1065,20 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>3</v>
@@ -1083,107 +1091,107 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="8">
         <f>C35-C36</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9">
         <f>C40*C36+C39*C38</f>
-        <v>34.900000000000006</v>
+        <v>3.5</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
         <f>C39*(1-C36/C35)+(C40-C37)*C36/C35</f>
-        <v>0.79500000000000004</v>
+        <v>-7.4999999999999983E-2</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44">
         <f>C43</f>
-        <v>0.79500000000000004</v>
+        <v>-7.4999999999999983E-2</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45">
         <f>C37+C43</f>
-        <v>1.7949999999999999</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D45">
         <f>C40+C39*C38/C36</f>
-        <v>1.8368421052631578</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="9">
         <f>C44*C38+C45*C36</f>
-        <v>34.9</v>
+        <v>3.5</v>
       </c>
       <c r="D46" s="9">
         <f>D45*C36+D44*C38</f>
-        <v>34.9</v>
+        <v>3.5</v>
       </c>
       <c r="E46" s="11"/>
     </row>
@@ -1199,7 +1207,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1211,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
